--- a/Payslip process/DataBases/Employee Pay.xlsx
+++ b/Payslip process/DataBases/Employee Pay.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhoa\Documents\UiPath\Final Project-HR Process\HR Payroll Project\DataBases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDACF5-0EB6-41F9-A30E-93708AAFA2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D27062-69E1-45C8-89C9-F5DE37E5B3F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2568" windowWidth="17280" windowHeight="9420" xr2:uid="{8DA32449-2137-40CB-9B22-22743BEF6108}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{8DA32449-2137-40CB-9B22-22743BEF6108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="170">
   <si>
     <t>Employee ID</t>
   </si>
@@ -928,15 +928,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F916B8FB-447D-4B20-9B79-9C5DBBC12366}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1001,7 +1004,7 @@
       </c>
       <c r="H2" s="6">
         <f ca="1">RANDBETWEEN(7,25)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>80</v>
@@ -1017,55 +1020,10 @@
       </c>
       <c r="M2" s="6">
         <f ca="1">H2*I2</f>
-        <v>1760</v>
-      </c>
-      <c r="O2">
-        <v>101</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>14</v>
-      </c>
-      <c r="W2">
-        <v>40</v>
-      </c>
-      <c r="X2">
-        <v>36</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>50</v>
-      </c>
-      <c r="AA2">
-        <v>610</v>
-      </c>
-      <c r="AB2">
-        <v>8.2737999999999996</v>
-      </c>
-      <c r="AC2">
-        <v>5047.018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1089,7 +1047,7 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H21" ca="1" si="0">RANDBETWEEN(7,25)</f>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>80</v>
@@ -1105,55 +1063,10 @@
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3:M21" ca="1" si="1">H3*I3</f>
-        <v>1840</v>
-      </c>
-      <c r="O3">
-        <v>102</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3">
-        <v>21</v>
-      </c>
-      <c r="W3">
-        <v>46</v>
-      </c>
-      <c r="X3">
-        <v>36</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>22</v>
-      </c>
-      <c r="AA3">
-        <v>988</v>
-      </c>
-      <c r="AB3">
-        <v>8.26417</v>
-      </c>
-      <c r="AC3">
-        <v>8164.9999600000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1177,7 +1090,7 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -1193,55 +1106,10 @@
       </c>
       <c r="M4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="O4">
-        <v>103</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4">
-        <v>17</v>
-      </c>
-      <c r="W4">
-        <v>49</v>
-      </c>
-      <c r="X4">
-        <v>36</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>27</v>
-      </c>
-      <c r="AA4">
-        <v>860</v>
-      </c>
-      <c r="AB4">
-        <v>8.26417</v>
-      </c>
-      <c r="AC4">
-        <v>7107.1862000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1283,53 +1151,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>1760</v>
       </c>
-      <c r="O5">
-        <v>104</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5">
-        <v>24</v>
-      </c>
-      <c r="W5">
-        <v>43</v>
-      </c>
-      <c r="X5">
-        <v>36</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>35</v>
-      </c>
-      <c r="AA5">
-        <v>1067</v>
-      </c>
-      <c r="AB5">
-        <v>8.26417</v>
-      </c>
-      <c r="AC5">
-        <v>8817.8693899999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1371,53 +1194,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>1120</v>
       </c>
-      <c r="O6">
-        <v>105</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6">
-        <v>24</v>
-      </c>
-      <c r="W6">
-        <v>38</v>
-      </c>
-      <c r="X6">
-        <v>36</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>39</v>
-      </c>
-      <c r="AA6">
-        <v>951</v>
-      </c>
-      <c r="AB6">
-        <v>8.26417</v>
-      </c>
-      <c r="AC6">
-        <v>7859.2256699999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1441,7 +1219,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>80</v>
@@ -1457,55 +1235,10 @@
       </c>
       <c r="M7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="O7">
-        <v>106</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7">
-        <v>19</v>
-      </c>
-      <c r="W7">
-        <v>48</v>
-      </c>
-      <c r="X7">
-        <v>36</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>49</v>
-      </c>
-      <c r="AA7">
-        <v>961</v>
-      </c>
-      <c r="AB7">
-        <v>8.26417</v>
-      </c>
-      <c r="AC7">
-        <v>7941.8673699999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1529,7 +1262,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>80</v>
@@ -1545,55 +1278,10 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1040</v>
-      </c>
-      <c r="O8">
-        <v>107</v>
-      </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8">
-        <v>13</v>
-      </c>
-      <c r="W8">
-        <v>37</v>
-      </c>
-      <c r="X8">
-        <v>36</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>49</v>
-      </c>
-      <c r="AA8">
-        <v>530</v>
-      </c>
-      <c r="AB8">
-        <v>8.26417</v>
-      </c>
-      <c r="AC8">
-        <v>4380.0101000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1617,7 +1305,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>80</v>
@@ -1633,55 +1321,10 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="O9">
-        <v>108</v>
-      </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9">
-        <v>24</v>
-      </c>
-      <c r="W9">
-        <v>45</v>
-      </c>
-      <c r="X9">
-        <v>36</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>39</v>
-      </c>
-      <c r="AA9">
-        <v>1119</v>
-      </c>
-      <c r="AB9">
-        <v>8.26417</v>
-      </c>
-      <c r="AC9">
-        <v>9247.6062299999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1705,7 +1348,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -1721,55 +1364,10 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>880</v>
-      </c>
-      <c r="O10">
-        <v>109</v>
-      </c>
-      <c r="P10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10">
-        <v>24</v>
-      </c>
-      <c r="W10">
-        <v>48</v>
-      </c>
-      <c r="X10">
-        <v>36</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>33</v>
-      </c>
-      <c r="AA10">
-        <v>1185</v>
-      </c>
-      <c r="AB10">
-        <v>8.26417</v>
-      </c>
-      <c r="AC10">
-        <v>9793.0414500000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1793,7 +1391,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>80</v>
@@ -1809,55 +1407,10 @@
       </c>
       <c r="M11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1840</v>
-      </c>
-      <c r="O11">
-        <v>110</v>
-      </c>
-      <c r="P11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11">
-        <v>9</v>
-      </c>
-      <c r="W11">
-        <v>41</v>
-      </c>
-      <c r="X11">
-        <v>36</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>24</v>
-      </c>
-      <c r="AA11">
-        <v>393</v>
-      </c>
-      <c r="AB11">
-        <v>8.26417</v>
-      </c>
-      <c r="AC11">
-        <v>3247.8188100000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1881,7 +1434,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>80</v>
@@ -1897,10 +1450,10 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1924,7 +1477,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>80</v>
@@ -1940,10 +1493,10 @@
       </c>
       <c r="M13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1967,7 +1520,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>80</v>
@@ -1983,10 +1536,10 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2010,7 +1563,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>80</v>
@@ -2026,10 +1579,10 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2053,7 +1606,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>80</v>
@@ -2069,10 +1622,10 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2096,7 +1649,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>80</v>
@@ -2112,10 +1665,10 @@
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2139,7 +1692,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>80</v>
@@ -2155,10 +1708,10 @@
       </c>
       <c r="M18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2182,7 +1735,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -2198,10 +1751,10 @@
       </c>
       <c r="M19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2225,7 +1778,7 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <v>80</v>
@@ -2241,10 +1794,10 @@
       </c>
       <c r="M20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2268,7 +1821,7 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>80</v>
@@ -2284,7 +1837,7 @@
       </c>
       <c r="M21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>960</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
@@ -2300,12 +1853,12 @@
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2376,11 +1929,11 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">RANDBETWEEN(7,25)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(36,50)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>36</v>
@@ -2390,21 +1943,21 @@
       </c>
       <c r="L2" s="4">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M2" s="4">
         <f ca="1">H2*I2+L2</f>
-        <v>739</v>
+        <v>481</v>
       </c>
       <c r="N2" s="4">
         <v>8.2737999999999996</v>
       </c>
       <c r="O2">
         <f ca="1">M2*N2</f>
-        <v>6114.3382000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3979.6977999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2428,11 +1981,11 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H11" ca="1" si="0">RANDBETWEEN(7,25)</f>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" ca="1" si="1">RANDBETWEEN(36,50)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>36</v>
@@ -2442,21 +1995,21 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L11" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M11" ca="1" si="3">H3*I3+L3</f>
-        <v>959</v>
+        <v>415</v>
       </c>
       <c r="N3" s="4">
         <v>8.26417</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O11" ca="1" si="4">M3*N3</f>
-        <v>7925.3390300000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3429.6305499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2480,11 +2033,11 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -2494,21 +2047,21 @@
       </c>
       <c r="L4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="N4" s="4">
         <v>8.26417</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="4"/>
-        <v>2908.9878399999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3892.42407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2532,11 +2085,11 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>36</v>
@@ -2546,21 +2099,21 @@
       </c>
       <c r="L5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1169</v>
+        <v>634</v>
       </c>
       <c r="N5" s="4">
         <v>8.26417</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="4"/>
-        <v>9660.8147300000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5239.4837799999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -2584,11 +2137,11 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>36</v>
@@ -2598,21 +2151,21 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="N6" s="4">
         <v>8.26417</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="4"/>
-        <v>6041.1082699999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5784.9189999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -2636,11 +2189,11 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>36</v>
@@ -2650,21 +2203,21 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>963</v>
+        <v>432</v>
       </c>
       <c r="N7" s="4">
         <v>8.26417</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>7958.3957099999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3570.1214399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -2688,11 +2241,11 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>36</v>
@@ -2702,21 +2255,21 @@
       </c>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>391</v>
+        <v>900</v>
       </c>
       <c r="N8" s="4">
         <v>8.26417</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="4"/>
-        <v>3231.2904699999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7437.7529999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2740,7 +2293,7 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
@@ -2754,21 +2307,21 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>425</v>
+        <v>743</v>
       </c>
       <c r="N9" s="4">
         <v>8.26417</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="4"/>
-        <v>3512.27225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6140.2783099999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -2792,11 +2345,11 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -2806,21 +2359,21 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="N10" s="4">
         <v>8.26417</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="4"/>
-        <v>4380.0101000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3851.10322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -2844,11 +2397,11 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>36</v>
@@ -2858,21 +2411,21 @@
       </c>
       <c r="L11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>881</v>
+        <v>370</v>
       </c>
       <c r="N11" s="4">
         <v>8.26417</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="4"/>
-        <v>7280.7337699999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3057.7429000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
